--- a/dados_trucadao_completos.xlsx
+++ b/dados_trucadao_completos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>196000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R$ 378.000,00</t>
+          <t>R$ 230.000,00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -602,17 +602,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>G450</t>
+          <t>G420</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>10/10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -622,29 +622,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>286000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Patos de Minas - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R$ 155.000,00</t>
+          <t>R$ 285.000,00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -654,27 +654,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R400</t>
+          <t>MB2544</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>04/04</t>
+          <t>14/14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1172000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -689,14 +689,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Limeira - São Paulo</t>
+          <t>Patos de Minas - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 260.000,00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -706,49 +706,49 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>G420</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>08/08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1842000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CRLV - Exercício</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Fazenda Vilanova - Rio Grande do Sul</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R$ 110.000,00</t>
+          <t>R$ 230.000,00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -758,17 +758,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NL12 360</t>
+          <t>MB2546</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>96/96</t>
+          <t>13/13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -788,19 +788,19 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>CRLV - Exercício</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Limeira - São Paulo</t>
+          <t>Fazenda Vilanova - Rio Grande do Sul</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R$ 510.000,00</t>
+          <t>R$ 150.000,00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -810,22 +810,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>114 380</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>07/07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -835,24 +835,24 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Campo Grande - Mato Grosso do Sul</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R$ 130.000,00</t>
+          <t>R$ 330.000,00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -862,17 +862,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MB1634</t>
+          <t>FH540</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10/10</t>
+          <t>12/12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -897,14 +897,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Iracemapolis - São Paulo</t>
+          <t>CAPAO BONITO - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R$ 90.000,00</t>
+          <t>R$ 690.000,00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -914,17 +914,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cargo4532</t>
+          <t>FH540</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10/11</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>489000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -944,19 +944,19 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>PRETO</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SAO PAULO - São Paulo</t>
+          <t>Campo Grande - Mato Grosso do Sul</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R$ 380.000,00</t>
+          <t>R$ 600.000,00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -966,49 +966,49 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DAF</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>XF105 510</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>148163</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Limeira - São Paulo</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R$ 600.000,00</t>
+          <t>R$ 440.000,00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1018,17 +1018,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>25 360</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>22/23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1038,29 +1038,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>161582</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Campinas - São Paulo</t>
+          <t>Pescaria Brava - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R$ 550.000,00</t>
+          <t>R$ 650.000,00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>FH500</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1085,34 +1085,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>282000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CRLV - Exercício</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Uberlândia - Minas Gerais</t>
+          <t>Fazenda Vilanova - Rio Grande do Sul</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R$ 500.000,00</t>
+          <t>R$ 285.000,00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1122,49 +1122,49 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>G420</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>08/09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1159100</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CRLV - Exercício</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Fazenda Vilanova - Rio Grande do Sul</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 260.000,00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1174,49 +1174,49 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>G420</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>22/23</t>
+          <t>10/11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>822900</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Londrina - Paraná</t>
+          <t>LIMEIRA - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>R$ 378.000,00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DAF</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>XF105 510</t>
+          <t>G450</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1246,29 +1246,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>R$ 155.000,00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1278,49 +1278,49 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>R400</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>04/04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>450062</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Limeira - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>R$ 470.000,00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1330,17 +1330,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>22/23</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>170324</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1365,14 +1365,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Campinas - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R$ 300.000,00</t>
+          <t>R$ 110.000,00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1382,49 +1382,49 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>NL12 360</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>16/16</t>
+          <t>96/96</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>34626</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Limeira - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R$ 645.000,00</t>
+          <t>R$ 510.000,00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R 450</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1454,29 +1454,29 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>288657</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>CRLV - Exercício</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Fazenda Vilanova - Rio Grande do Sul</t>
+          <t>Regente Feijó - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R$ 409.890,00</t>
+          <t>R$ 130.000,00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1486,17 +1486,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R440</t>
+          <t>MB1634</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18/18</t>
+          <t>10/10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1521,14 +1521,14 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>Iracemapolis - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R$ 409.890,00</t>
+          <t>R$ 90.000,00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1538,27 +1538,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R440</t>
+          <t>Cargo4532</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18/18</t>
+          <t>10/11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1573,14 +1573,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>SAO PAULO - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R$ 764.990,00</t>
+          <t>R$ 380.000,00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1595,22 +1595,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>XF 530</t>
+          <t>XF105 510</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>496775</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1620,19 +1620,19 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>PRETO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Limeira - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R$ 519.900,00</t>
+          <t>R$ 600.000,00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1642,12 +1642,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DAF</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>XF 530</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1662,29 +1662,29 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>197682</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Campinas - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>R$ 550.000,00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1694,17 +1694,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DAF</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>XF 530</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1714,29 +1714,29 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>248440</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Uberlândia - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R$ 589.990,00</t>
+          <t>R$ 500.000,00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>G540</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1766,29 +1766,29 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>183872</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R$ 230.000,00</t>
+          <t>R$ 470.000,00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1798,49 +1798,49 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FH480</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>08/08</t>
+          <t>22/23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>59719</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>LIMEIRA - São Paulo</t>
+          <t>Londrina - Paraná</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R$ 579.990,00</t>
+          <t>R$ 359.990,00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1850,17 +1850,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>DAF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>G450</t>
+          <t>XF105 510</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>22/23</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>612697</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1892,7 +1892,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R$ 350.000,00</t>
+          <t>R$ 510.000,00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1902,49 +1902,49 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FH540</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13/13</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>296440</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>VERMELHO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Campo Grande - Mato Grosso do Sul</t>
+          <t>Regente Feijó - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R$ 520.000,00</t>
+          <t>R$ 470.000,00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1954,49 +1954,49 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R 510</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>19/19</t>
+          <t>22/23</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>129015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>LIMEIRA - São Paulo</t>
+          <t>Campinas - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R$ 280.000,00</t>
+          <t>R$ 300.000,00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2006,49 +2006,49 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R114 380</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>07/07</t>
+          <t>16/16</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>238088</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>CRLV - Exercício</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Fazenda Vilanova - Rio Grande do Sul</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R$ 440.000,00</t>
+          <t>R$ 645.000,00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2058,17 +2058,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>R 450</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2078,29 +2078,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>448000</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CRLV - Exercício</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Londrina - Paraná</t>
+          <t>Fazenda Vilanova - Rio Grande do Sul</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 409.890,00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2110,49 +2110,49 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>R440</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22/23</t>
+          <t>18/18</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>565000</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 764.990,00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2162,27 +2162,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>DAF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MB2546</t>
+          <t>XF 530</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>101564</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2192,19 +2192,19 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>PRETO</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Limeira - São Paulo</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R$ 163.000,00</t>
+          <t>R$ 519.900,00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2214,27 +2214,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Iveco</t>
+          <t>DAF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Stralis 380</t>
+          <t>XF 530</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>08/08</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>436610</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2249,14 +2249,14 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Limeira - São Paulo</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 499.990,00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>DAF</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>XF 530</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2286,29 +2286,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>473000</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 589.990,00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2318,17 +2318,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>G540</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22/23</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2338,29 +2338,29 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>359099</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R$ 209.890,00</t>
+          <t>R$ 230.000,00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FH440</t>
+          <t>FH480</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09/09</t>
+          <t>08/08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>128000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2405,14 +2405,14 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>LIMEIRA - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 579.990,00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>G450</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2442,29 +2442,29 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>307969</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Chapecó - Santa Catarina</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R$ 500.000,00</t>
+          <t>R$ 350.000,00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2474,22 +2474,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ACTROS 2548 S</t>
+          <t>FH540</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>13/13</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2499,24 +2499,24 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>VERMELHO</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Campo Grande - Mato Grosso do Sul</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>R$ 520.000,00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>124 360</t>
+          <t>R 510</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>05/06</t>
+          <t>19/19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>690000</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2568,7 +2568,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R$ 580.000,00</t>
+          <t>R$ 280.000,00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2578,27 +2578,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MB2644</t>
+          <t>R114 380</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>07/07</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1612100</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2608,19 +2608,19 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>CRLV - Exercício</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Navirai - Mato Grosso do Sul</t>
+          <t>Fazenda Vilanova - Rio Grande do Sul</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R$ 178.000,00</t>
+          <t>R$ 440.000,00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2630,49 +2630,49 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Iveco</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Stralis 410</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10/10</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>195711</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Campo Grande - Mato Grosso do Sul</t>
+          <t>Londrina - Paraná</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>R$ 145.000,00</t>
+          <t>R$ 470.000,00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2682,49 +2682,49 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FH12 380</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>04/04</t>
+          <t>22/23</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>58652</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Limeira - São Paulo</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2734,49 +2734,49 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>MB2546</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>304919</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Campinas - São Paulo</t>
+          <t>Limeira - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>R$ 163.000,00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2786,49 +2786,49 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Iveco</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>Stralis 380</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>08/08</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>845150</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>Limeira - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>22/23</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>474165</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>R$ 560.000,00</t>
+          <t>R$ 470.000,00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>86032</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>R$ 510.000,00</t>
+          <t>R$ 209.890,00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2942,37 +2942,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>FH440</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>09/09</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>996000</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2984,7 +2984,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2999,12 +2999,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>22/23</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>125290</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3029,14 +3029,14 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Guarulhos - São Paulo</t>
+          <t>Chapecó - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>R$ 600.000,00</t>
+          <t>R$ 500.000,00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3046,49 +3046,49 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FH540</t>
+          <t>ACTROS 2548 S</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>CRLV - Exercício</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Fazenda Vilanova - Rio Grande do Sul</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 185.000,00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3098,22 +3098,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>124 360</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>05/06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3123,24 +3123,24 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>LIMEIRA - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>R$ 453.600,00</t>
+          <t>R$ 580.000,00</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3150,17 +3150,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MB2644</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3170,29 +3170,29 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>92000</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Navirai - Mato Grosso do Sul</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>R$ 178.000,00</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3202,22 +3202,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Iveco</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>Stralis 410</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>10/10</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3227,24 +3227,24 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>Campo Grande - Mato Grosso do Sul</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>R$ 510.000,00</t>
+          <t>R$ 145.000,00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3254,42 +3254,42 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>FH12 380</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>04/04</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>906659</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>Limeira - São Paulo</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>53749</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Guarulhos - São Paulo</t>
+          <t>Campinas - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 430.000,00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>342643</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3393,14 +3393,14 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>R$ 470.000,00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>22/23</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>100228</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3445,14 +3445,14 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>R$ 620.000,00</t>
+          <t>R$ 560.000,00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3467,12 +3467,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>22/23</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>68692</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3497,14 +3497,14 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>R$ 453.600,00</t>
+          <t>R$ 510.000,00</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>355631</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3549,14 +3549,14 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>R$ 455.000,00</t>
+          <t>R$ 610.000,00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>60819</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3601,14 +3601,14 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Chapecó - Santa Catarina</t>
+          <t>Guarulhos - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 600.000,00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3618,12 +3618,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>FH540</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3633,34 +3633,34 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>316600</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>CRLV - Exercício</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Fazenda Vilanova - Rio Grande do Sul</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>479803</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3705,14 +3705,14 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>R$ 620.000,00</t>
+          <t>R$ 453.600,00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>180914</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3757,14 +3757,14 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>R$ 453.600,00</t>
+          <t>R$ 610.000,00</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3779,12 +3779,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>188926</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3809,14 +3809,14 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>R$ 455.000,00</t>
+          <t>R$ 510.000,00</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>315002</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3861,14 +3861,14 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Chapecó - Santa Catarina</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>R$ 275.000,00</t>
+          <t>R$ 610.000,00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3878,49 +3878,49 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Iveco</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Stralis 420</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>07/07</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>137180</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cascavel - Paraná</t>
+          <t>Guarulhos - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>R$ 440.000,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>310490</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>404359</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4017,14 +4017,14 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Londrina - Paraná</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>R$ 440.000,00</t>
+          <t>R$ 620.000,00</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4039,12 +4039,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>G440</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>18/19</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>95994</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4069,14 +4069,14 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>R$ 453.600,00</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>355679</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4121,14 +4121,14 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>R$ 220.000,00</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4138,49 +4138,49 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FH460</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11/11</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>152852</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>VERMELHO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>São Paulo - São Paulo</t>
+          <t>Chapecó - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>R$ 485.000,00</t>
+          <t>R$ 275.000,00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4190,22 +4190,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Iveco</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>Stralis 420</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>07/07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4215,24 +4215,24 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Chapecó - Santa Catarina</t>
+          <t>Cascavel - Paraná</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>R$ 440.000,00</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>206490</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4277,14 +4277,14 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Chapecó - Santa Catarina</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>199233</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4329,14 +4329,14 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Londrina - Paraná</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>R$ 350.000,00</t>
+          <t>R$ 440.000,00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4346,49 +4346,49 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>G440</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>16/16</t>
+          <t>18/19</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>564523</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Belo Horizonte - Minas Gerais</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>R$ 169.890,00</t>
+          <t>R$ 430.000,00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4398,101 +4398,101 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>FH400</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>08/08</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>310011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>R$ 220.000,00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Cavalo Mecânico</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>FH460</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>11/11</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>SEMI-NOVO</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>Não informado</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>MB2651</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>22/22</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>VERMELHO</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Londrina - Paraná</t>
+          <t>São Paulo - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>128311</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uberlândia - Minas Gerais</t>
+          <t>Chapecó - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A NEGOCIAR</t>
+          <t>R$ 430.000,00</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4564,39 +4564,39 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>18/19</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>444273</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>ITUPORANGA - Santa Catarina</t>
+          <t>Chapecó - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>R$ 485.000,00</t>
+          <t>R$ 430.000,00</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>310179</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4641,14 +4641,14 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Londrina - Paraná</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>R$ 465.000,00</t>
+          <t>R$ 485.000,00</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>128311</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4693,14 +4693,14 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Chapecó - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>R$ 430.000,00</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4715,12 +4715,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>444273</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4745,14 +4745,14 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Campinas - São Paulo</t>
+          <t>Chapecó - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>R$ 310.000,00</t>
+          <t>R$ 430.000,00</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>18/18</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>310179</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4797,14 +4797,14 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>R$ 590.000,00</t>
+          <t>R$ 350.000,00</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4824,39 +4824,39 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>16/16</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>726813</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Belo Horizonte - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>R$ 540.000,00</t>
+          <t>R$ 169.890,00</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4866,49 +4866,49 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>FH400</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>08/08</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>760000</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>R$ 320.000,00</t>
+          <t>R$ 600.000,00</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4918,49 +4918,49 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>MB2544</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>17/18</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>125507</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>LIMEIRA - São Paulo</t>
+          <t>Londrina - Paraná</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>R$ 240.000,00</t>
+          <t>R$ 610.000,00</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4975,12 +4975,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>MERCEDES-BENZ/ACTROS 2651S6X4</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>55388</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5005,14 +5005,14 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Uberlândia - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>A NEGOCIAR</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>18/19</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5047,24 +5047,24 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>ITUPORANGA - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>R$ 620.000,00</t>
+          <t>R$ 485.000,00</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5079,12 +5079,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>177670</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5109,14 +5109,14 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Guarulhos - São Paulo</t>
+          <t>Londrina - Paraná</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>R$ 450.000,00</t>
+          <t>R$ 465.000,00</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5131,12 +5131,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>G-540 6X4</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>218211</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5161,14 +5161,14 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 610.000,00</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>78048</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5213,14 +5213,14 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Campinas - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 310.000,00</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5235,12 +5235,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>22/23</t>
+          <t>18/18</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>583070</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5265,14 +5265,14 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Londrina - Paraná</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>R$ 540.000,00</t>
+          <t>R$ 590.000,00</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>115894</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5317,14 +5317,14 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Uberlândia - Minas Gerais</t>
+          <t>Regente Feijó - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>R$ 540.000,00</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>271353</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5369,14 +5369,14 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Campinas - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>R$ 699.000,00</t>
+          <t>R$ 320.000,00</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5386,27 +5386,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R 450</t>
+          <t>MB2544</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>17/18</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>923500</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5416,19 +5416,19 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Catanduva - São Paulo</t>
+          <t>LIMEIRA - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>R$ 496.800,00</t>
+          <t>R$ 240.000,00</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5443,12 +5443,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MERCEDES-BENZ/ACTROS 2651S6X4</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>492844</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5525,14 +5525,14 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>Regente Feijó - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 620.000,00</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5542,17 +5542,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>161555</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5577,14 +5577,14 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Guarulhos - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>R$ 460.000,00</t>
+          <t>R$ 450.000,00</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5594,17 +5594,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>G-540 6X4</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5629,14 +5629,14 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>R$ 534.900,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5646,49 +5646,49 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>FH540</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>154416</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>LIMEIRA - São Paulo</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>R$ 470.000,00</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5703,12 +5703,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>22/23</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>97207</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Londrina - Paraná</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>R$ 320.000,00</t>
+          <t>R$ 540.000,00</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>19/19</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>253196</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5785,14 +5785,14 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Uberlândia - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 610.000,00</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5807,12 +5807,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>74758</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5837,14 +5837,14 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>Campinas - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 699.000,00</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5854,17 +5854,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>R 450</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5874,29 +5874,29 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>237400</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Catanduva - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 496.800,00</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>287501</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5941,14 +5941,14 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Chapecó - Santa Catarina</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 430.000,00</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>352469</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -6000,7 +6000,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>R$ 510.000,00</t>
+          <t>R$ 470.000,00</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>275458</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -6045,14 +6045,14 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>R$ 460.000,00</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6062,17 +6062,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>348744</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -6097,14 +6097,14 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Guarulhos - São Paulo</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>R$ 510.000,00</t>
+          <t>R$ 534.900,00</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6114,49 +6114,49 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>FH540</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>595</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>LIMEIRA - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>R$ 453.600,00</t>
+          <t>R$ 430.000,00</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>280101</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6201,14 +6201,14 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>R$ 480.000,00</t>
+          <t>R$ 320.000,00</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6223,12 +6223,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>19/19</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>346771</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -6253,14 +6253,14 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Cuiabá - Mato Grosso</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>R$ 410.000,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>232005</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6305,14 +6305,14 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>R$ 460.000,00</t>
+          <t>R$ 470.000,00</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>158904</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -6357,14 +6357,14 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Londrina - Paraná</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 470.000,00</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6379,12 +6379,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>152321</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -6409,14 +6409,14 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Chapecó - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>R$ 496.800,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>196156</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -6461,14 +6461,14 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>R$ 485.000,00</t>
+          <t>R$ 510.000,00</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6483,12 +6483,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>22/23</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>394165</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -6513,14 +6513,14 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Campinas - São Paulo</t>
+          <t>Regente Feijó - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>R$ 340.000,00</t>
+          <t>R$ 610.000,00</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6530,49 +6530,49 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>MB2544</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>17/18</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>150118</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Direção Hidráulica</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Fazenda Vilanova - Rio Grande do Sul</t>
+          <t>Guarulhos - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>R$ 4.500,00</t>
+          <t>R$ 510.000,00</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6582,17 +6582,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>G440</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>14/14</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>358412</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6617,14 +6617,14 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>São Paulo - São Paulo</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 453.600,00</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6639,12 +6639,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>22/23</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>396780</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6669,14 +6669,14 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>R$ 480.000,00</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>95369</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6721,14 +6721,14 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Uberlândia - Minas Gerais</t>
+          <t>Cuiabá - Mato Grosso</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>R$ 440.000,00</t>
+          <t>R$ 480.000,00</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>95369</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6773,14 +6773,14 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Cuiabá - Mato Grosso</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>R$ 444.900,00</t>
+          <t>R$ 410.000,00</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6790,49 +6790,49 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>R440</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>18/18</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>123876</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>VERMELHO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>LIMEIRA - São Paulo</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>R$ 520.000,00</t>
+          <t>R$ 460.000,00</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>344663</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6877,14 +6877,14 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Londrina - Paraná</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>R$ 490.000,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6894,17 +6894,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>R$ 496.800,00</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>258158</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6981,14 +6981,14 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>R$ 489.000,00</t>
+          <t>R$ 485.000,00</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6998,17 +6998,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>FH540</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>22/23</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -7018,29 +7018,29 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>97127</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Itajai - Santa Catarina</t>
+          <t>Campinas - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>R$ 11.000,00</t>
+          <t>R$ 340.000,00</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7050,49 +7050,49 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>G440</t>
+          <t>MB2544</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>14/14</t>
+          <t>17/18</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>491600</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>Direção Hidráulica</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>Fazenda Vilanova - Rio Grande do Sul</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>R$ 240.000,00</t>
+          <t>R$ 4.500,00</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7107,12 +7107,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Actros 2651 6x4</t>
+          <t>G440</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>14/14</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -7137,14 +7137,14 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>São Paulo - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>R$ 560.000,00</t>
+          <t>R$ 470.000,00</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -7189,14 +7189,14 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>São Leopoldo - Rio Grande do Sul</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>R$ 600.000,00</t>
+          <t>R$ 610.000,00</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>138114</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -7236,19 +7236,19 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>LARANJA</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Uberlândia - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>R$ 440.000,00</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7263,12 +7263,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>298725</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7300,7 +7300,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>R$ 444.900,00</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7310,49 +7310,49 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>R440</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>18/18</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>634200</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>VERMELHO</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Caçapava - São Paulo</t>
+          <t>LIMEIRA - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>R$ 360.000,00</t>
+          <t>R$ 520.000,00</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7367,12 +7367,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>G450</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>19/19</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>346140</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -7397,14 +7397,14 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>R$ 600.000,00</t>
+          <t>R$ 490.000,00</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7414,17 +7414,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>130464</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>317713</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -7508,7 +7508,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>R$ 500.000,00</t>
+          <t>R$ 489.000,00</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7518,17 +7518,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>FH540</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7538,29 +7538,29 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>676286</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Itajai - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>R$ 220.000,00</t>
+          <t>R$ 11.000,00</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7570,49 +7570,49 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>TGX29440</t>
+          <t>G440</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>13/13</t>
+          <t>14/14</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Bandeirantes - Mato Grosso do Sul</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7622,49 +7622,49 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>G540</t>
+          <t>Actros 2651 6x4</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Limeira - São Paulo</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>R$ 210.000,00</t>
+          <t>R$ 560.000,00</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7679,12 +7679,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>MERCEDES/-BENZ/AXOR 3344 S</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>22/23</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>80133</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7709,7 +7709,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Itaquaquecetuba - São Paulo</t>
+          <t>São Leopoldo - Rio Grande do Sul</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>175443</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7756,19 +7756,19 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>LARANJA</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>R$ 600.000,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7783,12 +7783,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>486240</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7813,14 +7813,14 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Chapecó - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>R$ 450.000,00</t>
+          <t>R$ 485.000,00</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7835,12 +7835,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>150556</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7865,14 +7865,14 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Londrina - Paraná</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>R$ 510.000,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>526355</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7917,14 +7917,14 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Londrina - Paraná</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>R$ 620.000,00</t>
+          <t>R$ 475.200,00</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>278305</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7969,14 +7969,14 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Campinas - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>R$ 200.000,00</t>
+          <t>R$ 390.000,00</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7986,49 +7986,49 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>R420</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>07/08</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>407195</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>LIMEIRA - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>R$ 285.000,00</t>
+          <t>R$ 165.000,00</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -8038,49 +8038,49 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>G440</t>
+          <t>NH12 380</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>18/19</t>
+          <t>00/00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1335000</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>CAMPO GRANDE - Mato Grosso do Sul</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>R$ 390.000,00</t>
+          <t>R$ 330.000,00</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -8090,49 +8090,49 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>DAF</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>XF105 510</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>400000</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Itajai - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>R$ 470.000,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>263733</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -8177,14 +8177,14 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Regente Feijó - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>R$ 550.000,00</t>
+          <t>R$ 610.000,00</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>191089</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -8229,14 +8229,14 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Betim - Minas Gerais</t>
+          <t>Uberlândia - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>R$ 600.000,00</t>
+          <t>R$ 540.000,00</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>243960</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -8281,14 +8281,14 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>São José dos PInhais - Paraná</t>
+          <t>Sinop - Mato Grosso</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 320.000,00</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>19/19</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8318,7 +8318,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>639980</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -8333,14 +8333,14 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Chapecó - Santa Catarina</t>
+          <t>Regente Feijó - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>R$ 485.000,00</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8355,12 +8355,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>330216</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -8385,14 +8385,14 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Londrina - Paraná</t>
+          <t>Chapecó - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 265.000,00</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8402,49 +8402,49 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volvo</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>FH440</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>11/11</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1698000</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Londrina - Paraná</t>
+          <t>CAMPO GRANDE - Mato Grosso do Sul</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>R$ 475.200,00</t>
+          <t>R$ 320.000,00</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>19/19</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>594889</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8489,14 +8489,14 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Regente Feijó - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>R$ 390.000,00</t>
+          <t>R$ 430.000,00</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Mercedes Benz</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>423259</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -8541,14 +8541,14 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Recife - Pernambuco</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>R$ 165.000,00</t>
+          <t>R$ 395.000,00</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8558,49 +8558,49 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NH12 380</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>00/00</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>243229</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>CAMPO GRANDE - Mato Grosso do Sul</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>R$ 330.000,00</t>
+          <t>R$ 340.000,00</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8610,17 +8610,17 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DAF</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>XF105 510</t>
+          <t>VW 19360</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>20/21</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>361150</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8645,14 +8645,14 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Itajai - Santa Catarina</t>
+          <t>Limeira - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>R$ 420.000,00</t>
+          <t>R$ 610.000,00</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8667,12 +8667,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>58429</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -8697,14 +8697,14 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8719,12 +8719,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>117118</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8749,14 +8749,14 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Uberlândia - Minas Gerais</t>
+          <t>Chapecó - Santa Catarina</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>R$ 540.000,00</t>
+          <t>R$ 440.000,00</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8766,17 +8766,17 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>286327</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8801,14 +8801,14 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Sinop - Mato Grosso</t>
+          <t>São José dos PInhais - Paraná</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>R$ 320.000,00</t>
+          <t>R$ 610.000,00</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8823,12 +8823,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>19/19</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>58429</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8853,14 +8853,14 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>R$ 485.000,00</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8875,12 +8875,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>117118</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8912,7 +8912,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>R$ 265.000,00</t>
+          <t>R$ 440.000,00</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8922,49 +8922,49 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>FH440</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>11/11</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>286327</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>CAMPO GRANDE - Mato Grosso do Sul</t>
+          <t>São José dos PInhais - Paraná</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>R$ 320.000,00</t>
+          <t>R$ 430.000,00</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>19/19</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>355736</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -9016,7 +9016,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>R$ 367.200,00</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Mercedes Benz</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>19/19</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>334008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -9061,14 +9061,14 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Recife - Pernambuco</t>
+          <t>Regente Feijó - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>R$ 395.000,00</t>
+          <t>R$ 600.000,00</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -9083,12 +9083,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>97802</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -9113,14 +9113,14 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Sinop - Mato Grosso</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>R$ 340.000,00</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -9130,49 +9130,49 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>VW 19360</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>20/21</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>166646</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Limeira - São Paulo</t>
+          <t>Londrina - Paraná</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>R$ 645.000,00</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -9182,49 +9182,49 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>R540</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>21/22</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>371339</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Limeira - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>R$ 485.000,00</t>
+          <t>R$ 320.000,00</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -9239,12 +9239,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Meteor VW 28.460</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>19/19</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>560413</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -9269,14 +9269,14 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Chapecó - Santa Catarina</t>
+          <t>Regente Feijó - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>R$ 440.000,00</t>
+          <t>R$ 345.600,00</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>G450</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -9321,14 +9321,14 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>São José dos PInhais - Paraná</t>
+          <t>Goiania - Goiás</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>R$ 440.000,00</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>20/20</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>278721</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -9373,14 +9373,14 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>R$ 367.200,00</t>
+          <t>R$ 550.000,00</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9395,12 +9395,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MB2651</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>19/19</t>
+          <t>21/21</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>255255</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -9425,14 +9425,14 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Uberlândia - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>R$ 600.000,00</t>
+          <t>R$ 430.000,00</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9447,12 +9447,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>19/20</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>264262</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -9477,14 +9477,14 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Sinop - Mato Grosso</t>
+          <t>Ribeirão Preto - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>R$ 610.000,00</t>
+          <t>R$ 220.000,00</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9494,22 +9494,22 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>G420</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>22/22</t>
+          <t>10/10</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -9519,24 +9519,24 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Londrina - Paraná</t>
+          <t>Maringá - Paraná</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>R$ 645.000,00</t>
+          <t>R$ 560.000,00</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9546,49 +9546,49 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>R540</t>
+          <t>Meteor VW 28.460</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>21/22</t>
+          <t>22/23</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>SEMI-NOVO</t>
+          <t>USADO</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>86969</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>DIESEL</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Limeira - São Paulo</t>
+          <t>Cuiabá - Mato Grosso</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>R$ 320.000,00</t>
+          <t>R$ 245.000,00</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9603,12 +9603,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>MERCEDES-BENZ/AXOR 2544 LS</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>19/19</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9633,14 +9633,14 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Regente Feijó - São Paulo</t>
+          <t>Itaquaquecetuba - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>R$ 345.600,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9655,12 +9655,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>G450</t>
+          <t>MB3344</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>457603</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -9685,14 +9685,14 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Goiania - Goiás</t>
+          <t>Betim - Minas Gerais</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>R$ 440.000,00</t>
+          <t>R$ 420.000,00</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>514391</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -9737,14 +9737,14 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
+          <t>Regente Feijó - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>R$ 550.000,00</t>
+          <t>R$ 699.000,00</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9754,17 +9754,17 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Scania</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>MB2651</t>
+          <t>R540</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>21/21</t>
+          <t>22/22</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9774,29 +9774,29 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>311000</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Uberlândia - Minas Gerais</t>
+          <t>Bragança Paulista - São Paulo</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>R$ 430.000,00</t>
+          <t>R$ 350.000,00</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9806,22 +9806,22 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>MB3344</t>
+          <t>VW 19360</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>19/20</t>
+          <t>20/21</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>USADO</t>
+          <t>SEMI-NOVO</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -9831,1057 +9831,17 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>DIESEL</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Ribeirão Preto - São Paulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>R$ 220.000,00</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Scania</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>G420</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>10/10</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>SEMI-NOVO</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>DIESEL</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Maringá - Paraná</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>R$ 560.000,00</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Meteor VW 28.460</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>22/23</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Cuiabá - Mato Grosso</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>R$ 245.000,00</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>MERCEDES-BENZ/AXOR 2544 LS</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>22/22</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Itaquaquecetuba - São Paulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>R$ 420.000,00</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>MB3344</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Betim - Minas Gerais</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>MB3344</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Regente Feijó - São Paulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>R$ 699.000,00</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Scania</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>R540</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>22/22</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>DIESEL</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Bragança Paulista - São Paulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>R$ 350.000,00</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>VW 19360</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>20/21</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>SEMI-NOVO</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>DIESEL</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
           <t>LIMEIRA - São Paulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>R$ 390.000,00</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>MB3344</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>21/21</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Goiania - Goiás</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>R$ 510.000,00</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>MB3344</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>22/22</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>Goiania - Goiás</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>R$ 430.000,00</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>MB3344</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>Itaquaquecetuba - São Paulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>R$ 440.000,00</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>MB3344</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>19/20</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Ribeirão Preto - São Paulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>R$ 345.600,00</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>G450</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>19/19</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>Goiania - Goiás</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Scania</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>R450</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>20/21</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>DIESEL</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>Direção Hidráulica</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>Fazenda Vilanova - Rio Grande do Sul</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>R$ 330.000,00</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>MB3344</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>19/19</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>Regente Feijó - São Paulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>R$ 290.000,00</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>MB3344</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>21/21</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>Goiania - Goiás</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>MB3344</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Chapecó - Santa Catarina</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>R$ 420.000,00</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>MB3344</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Londrina - Paraná</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>R$ 490.000,00</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Meteor VW 28.460</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>22/23</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>SEMI-NOVO</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>DIESEL</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>CINZA</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>LIMEIRA - São Paulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>G450</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>19/19</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>São Paulo - São Paulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>R$ 550.000,00</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Cavalo Mecânico</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Motor</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>MB2651</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>21/21</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>USADO</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NDA</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>Londrina - Paraná</t>
         </is>
       </c>
     </row>
